--- a/Data/Excel/Model/User/KingdomStructure.xlsx
+++ b/Data/Excel/Model/User/KingdomStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431AD609-2D35-4853-9911-CE1D4106ECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD57792-B7C5-482B-B488-1415E4090B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -1036,17 +1036,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,21 +1066,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1113,7 +1110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1121,7 +1118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>

--- a/Data/Excel/Model/User/KingdomStructure.xlsx
+++ b/Data/Excel/Model/User/KingdomStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD57792-B7C5-482B-B488-1415E4090B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F0D901-389E-4F02-996D-36200225452D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="1935" yWindow="2910" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>State</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -70,10 +66,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>pk, autogenerated</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>fk, c_index</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -99,6 +91,14 @@
   </si>
   <si>
     <t>Num</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SfId</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1054,76 +1054,76 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
